--- a/example/獲利追蹤/目標.xlsx
+++ b/example/獲利追蹤/目標.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">股票代號</t>
   </si>
@@ -31,7 +31,16 @@
     <t xml:space="preserve">買入時間</t>
   </si>
   <si>
-    <t xml:space="preserve">2023/7/6</t>
+    <t xml:space="preserve">數量(股)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/7</t>
   </si>
 </sst>
 </file>
@@ -116,13 +125,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -142,38 +155,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2330</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>565</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/example/獲利追蹤/目標.xlsx
+++ b/example/獲利追蹤/目標.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">股票代號</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">數量(股)</t>
   </si>
   <si>
+    <t xml:space="preserve">2330</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023/6/6</t>
   </si>
   <si>
@@ -41,15 +44,28 @@
   </si>
   <si>
     <t xml:space="preserve">2023/6/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2882</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,16 +141,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,17 +171,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
@@ -183,14 +203,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2330</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>565</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1000</v>
@@ -198,15 +218,71 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>45083</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>45083</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>45083</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
